--- a/【敬老】テスト計画票.xlsx
+++ b/【敬老】テスト計画票.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\③敬老祝いアンケート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbf0b1b725f40608/デスクトップ/敬老祝いアンケート/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7D8EA-D4DF-4F8D-A01C-BD30046F3D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6BD7D8EA-D4DF-4F8D-A01C-BD30046F3D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687CEBEA-5DD0-4F6C-8617-3886953BB14E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C57186B-F4C3-4FB2-85A0-B4EA20CC8909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,41 +506,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,67 +874,57 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="1"/>
+    <col min="2" max="2" width="5.58203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -960,12 +944,11 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
@@ -983,100 +966,94 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="5">
+    <row r="5" spans="1:9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
+    <row r="6" spans="1:9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
+    <row r="7" spans="1:9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9"/>
       <c r="B11" s="4">
         <v>5</v>
       </c>
@@ -1089,7 +1066,7 @@
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1100,15 +1077,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="C5:C9"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="I5:I9"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="C5:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
